--- a/estudiantes_sustentacion_tesis.xlsx
+++ b/estudiantes_sustentacion_tesis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF4AEEC-221E-4148-AAFE-7DB1BC2DA9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974593ED-9EB0-46B6-8C22-E89EF967A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/estudiantes_sustentacion_tesis.xlsx
+++ b/estudiantes_sustentacion_tesis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Horna\Documents\Usat - Horarios\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974593ED-9EB0-46B6-8C22-E89EF967A81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DE949-C651-4315-B642-3AD59820E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>Apellidos y Nombres</t>
   </si>
@@ -121,13 +121,280 @@
   </si>
   <si>
     <t>VILCHEZ RIVAS MARLON EUGENIO</t>
+  </si>
+  <si>
+    <t>171CV71445</t>
+  </si>
+  <si>
+    <t>171CV71446</t>
+  </si>
+  <si>
+    <t>171CV71447</t>
+  </si>
+  <si>
+    <t>171CV71448</t>
+  </si>
+  <si>
+    <t>171CV71449</t>
+  </si>
+  <si>
+    <t>171CV71450</t>
+  </si>
+  <si>
+    <t>201EP02322</t>
+  </si>
+  <si>
+    <t>201EP02323</t>
+  </si>
+  <si>
+    <t>201EP02324</t>
+  </si>
+  <si>
+    <t>201EP02325</t>
+  </si>
+  <si>
+    <t>201VP00124</t>
+  </si>
+  <si>
+    <t>201VP00125</t>
+  </si>
+  <si>
+    <t>201VP00126</t>
+  </si>
+  <si>
+    <t>201VP00127</t>
+  </si>
+  <si>
+    <t>201VP00128</t>
+  </si>
+  <si>
+    <t>201EP02326</t>
+  </si>
+  <si>
+    <t>201VP00129</t>
+  </si>
+  <si>
+    <t>GONZALEZ PEREZ JUAN</t>
+  </si>
+  <si>
+    <t>JGONZALEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>RAMIREZ LOPEZ MARIA</t>
+  </si>
+  <si>
+    <t>MRAMIREZ@gmail.com</t>
+  </si>
+  <si>
+    <t>MARTINEZ DIAZ CARLOS</t>
+  </si>
+  <si>
+    <t>CMARTINEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ MARTIN ANA</t>
+  </si>
+  <si>
+    <t>ARODRIGUEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GARCIA LUIS</t>
+  </si>
+  <si>
+    <t>LHERNANDEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>LOPEZ SANCHEZ LUCIA</t>
+  </si>
+  <si>
+    <t>LLOPEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>PEREZ GONZALEZ MIGUEL</t>
+  </si>
+  <si>
+    <t>MPEREZ@gmail.com</t>
+  </si>
+  <si>
+    <t>SANCHEZ RAMIREZ CARMEN</t>
+  </si>
+  <si>
+    <t>CSANCHEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>DIAZ FERNANDEZ JOSE</t>
+  </si>
+  <si>
+    <t>JDIAZ@gmail.com</t>
+  </si>
+  <si>
+    <t>GARCIA MARTINEZ BEATRIZ</t>
+  </si>
+  <si>
+    <t>BGARCIA@gmail.com</t>
+  </si>
+  <si>
+    <t>TORRES ALVAREZ MANUEL</t>
+  </si>
+  <si>
+    <t>MTORRES@gmail.com</t>
+  </si>
+  <si>
+    <t>RIVERA CRUZ PATRICIA</t>
+  </si>
+  <si>
+    <t>PRIVERA@gmail.com</t>
+  </si>
+  <si>
+    <t>GOMEZ RAMOS ANDRES</t>
+  </si>
+  <si>
+    <t>AGOMEZ@gmail.com</t>
+  </si>
+  <si>
+    <t>NAVARRO FLORES MONICA</t>
+  </si>
+  <si>
+    <t>MNAVARRO@gmail.com</t>
+  </si>
+  <si>
+    <t>MORALES DIAZ ALBERTO</t>
+  </si>
+  <si>
+    <t>AMORALES@gmail.com</t>
+  </si>
+  <si>
+    <t>ROMERO CASTILLO INES</t>
+  </si>
+  <si>
+    <t>IROMERO@gmail.com</t>
+  </si>
+  <si>
+    <t>GUTIERREZ RUIZ FERNANDO</t>
+  </si>
+  <si>
+    <t>FGUTIERREZ@gmail.com</t>
+  </si>
+  <si>
+    <t>SOTO MENDEZ JAVIER</t>
+  </si>
+  <si>
+    <t>JSOTO@gmail.com</t>
+  </si>
+  <si>
+    <t>MUNOZ PEREZ ROSA</t>
+  </si>
+  <si>
+    <t>RMUNOZ@gmail.com</t>
+  </si>
+  <si>
+    <t>SALAZAR HERRERA MARTA</t>
+  </si>
+  <si>
+    <t>MSALAZAR@gmail.com</t>
+  </si>
+  <si>
+    <t>201EP02327</t>
+  </si>
+  <si>
+    <t>201VP00130</t>
+  </si>
+  <si>
+    <t>201EP02328</t>
+  </si>
+  <si>
+    <t>Sistema web para gestión escolar</t>
+  </si>
+  <si>
+    <t>Aplicación Móvil para reservas hoteleras</t>
+  </si>
+  <si>
+    <t>Solución de BI para análisis financiero</t>
+  </si>
+  <si>
+    <t>Plataforma e-commerce para pequeñas empresas</t>
+  </si>
+  <si>
+    <t>Sistema de gestión de inventarios en la nube</t>
+  </si>
+  <si>
+    <t>Aplicación móvil para seguimiento de salud</t>
+  </si>
+  <si>
+    <t>Sistema web para control de proyectos</t>
+  </si>
+  <si>
+    <t>Solución de BI para optimización de ventas</t>
+  </si>
+  <si>
+    <t>Plataforma de educación en línea</t>
+  </si>
+  <si>
+    <t>Sistema web para gestión de recursos humanos</t>
+  </si>
+  <si>
+    <t>Aplicación móvil para delivery de comida</t>
+  </si>
+  <si>
+    <t>Solución de BI para análisis de marketing</t>
+  </si>
+  <si>
+    <t>Sistema web para administración de clínicas</t>
+  </si>
+  <si>
+    <t>Aplicación móvil para gestión de tareas</t>
+  </si>
+  <si>
+    <t>Solución de BI para monitoreo de desempeño</t>
+  </si>
+  <si>
+    <t>Plataforma de contratación en línea</t>
+  </si>
+  <si>
+    <t>Sistema web para reservas de restaurantes</t>
+  </si>
+  <si>
+    <t>Aplicación móvil para seguimiento de fitness</t>
+  </si>
+  <si>
+    <t>Solución de BI para pronósticos de ventas</t>
+  </si>
+  <si>
+    <t>Plataforma de colaboración en proyectos</t>
+  </si>
+  <si>
+    <t>ALARCON GARCIA ROGER ERNESTO</t>
+  </si>
+  <si>
+    <t>ZUNE BISPO LUIS</t>
+  </si>
+  <si>
+    <t>VALQUI SIPIRAN ALEXANDERS</t>
+  </si>
+  <si>
+    <t>LUJAN SEGURA EDWAR GLORIMER</t>
+  </si>
+  <si>
+    <t>NOBLECILLA VINCES WILLIAM ALFREDO</t>
+  </si>
+  <si>
+    <t>ROJAS CERNA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>CACHAY MACO JUNIOR EUGENIO</t>
+  </si>
+  <si>
+    <t>BRAVO JAICO JESSIE LEILA</t>
+  </si>
+  <si>
+    <t>ZELADA VALDIVIESO HECTOR MIGUEL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +406,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,16 +889,588 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="2"/>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>931231234</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2">
+        <v>912345678</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2">
+        <v>921234567</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2">
+        <v>943216789</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="2">
+        <v>954321987</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="2">
+        <v>965432198</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2">
+        <v>976543219</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2">
+        <v>987654321</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2">
+        <v>998765432</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2">
+        <v>978654321</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="2">
+        <v>912346789</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>923456789</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2">
+        <v>934567890</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="2">
+        <v>945678901</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2">
+        <v>956789012</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="2">
+        <v>967890123</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2">
+        <v>978901234</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2">
+        <v>989012345</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="2">
+        <v>990123456</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="2">
+        <v>901234567</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/estudiantes_sustentacion_tesis.xlsx
+++ b/estudiantes_sustentacion_tesis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brayan Horna\Documents\Usat - Horarios\PryHorarioTesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388DE949-C651-4315-B642-3AD59820E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D7291F-3080-4950-B1FD-C87D540ECD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
   <si>
     <t>Apellidos y Nombres</t>
   </si>
@@ -388,13 +388,16 @@
   </si>
   <si>
     <t>ZELADA VALDIVIESO HECTOR MIGUEL</t>
+  </si>
+  <si>
+    <t>NOBLECILLA VINCES WILLIAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +415,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -437,12 +447,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,9 +476,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,7 +516,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -609,7 +622,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +1009,7 @@
         <v>112</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>116</v>
@@ -1199,7 +1212,7 @@
         <v>111</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>117</v>
@@ -1369,8 +1382,8 @@
       <c r="E21" s="2">
         <v>978901234</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>113</v>
+      <c r="F21" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>117</v>
@@ -1472,5 +1485,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estudiantes_sustentacion_tesis.xlsx
+++ b/estudiantes_sustentacion_tesis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Music\PryHorarioTesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D7291F-3080-4950-B1FD-C87D540ECD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3E9C97-EFF5-43B9-BDC3-8F0CEC431862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72140228-D5D8-4C8D-AF3F-2AD74FCA34C0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="118">
   <si>
     <t>Apellidos y Nombres</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>LUJAN SEGURA EDWAR GLORIMER</t>
-  </si>
-  <si>
-    <t>NOBLECILLA VINCES WILLIAM ALFREDO</t>
   </si>
   <si>
     <t>ROJAS CERNA MIGUEL ANGEL</t>
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43142032-E38A-45CE-837D-9E934073690F}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +948,7 @@
         <v>109</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>28</v>
@@ -977,7 +974,7 @@
         <v>921234567</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>110</v>
@@ -1009,10 +1006,10 @@
         <v>112</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>92</v>
@@ -1038,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>109</v>
@@ -1096,7 +1093,7 @@
         <v>109</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>28</v>
@@ -1128,7 +1125,7 @@
         <v>110</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>96</v>
@@ -1154,10 +1151,10 @@
         <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>97</v>
@@ -1212,10 +1209,10 @@
         <v>111</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>99</v>
@@ -1244,7 +1241,7 @@
         <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>100</v>
@@ -1273,7 +1270,7 @@
         <v>112</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>101</v>
@@ -1296,7 +1293,7 @@
         <v>945678901</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>18</v>
@@ -1328,10 +1325,10 @@
         <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>103</v>
@@ -1383,10 +1380,10 @@
         <v>978901234</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>111</v>
@@ -1412,7 +1409,7 @@
         <v>989012345</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
@@ -1447,7 +1444,7 @@
         <v>112</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>107</v>
@@ -1473,7 +1470,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>18</v>
